--- a/biology/Botanique/Ochnaceae/Ochnaceae.xlsx
+++ b/biology/Botanique/Ochnaceae/Ochnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ochnaceae (les Ochnacées) sont une famille de plantes à fleurs dicotylédones qui comprend 300 à 500 espèces réparties en 28 genres.
 Ce sont des arbres, des arbustes et quelques plantes herbacées, à feuilles persistantes, des régions subtropicales à tropicales, particulièrement en Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ochna, nom latinisé du grec ancien οχνα - οχνη / okhna - okhnè, poire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ochna, nom latinisé du grec ancien οχνα - οχνη / okhna - okhnè, poire.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique la situe dans l'ordre des Malpighiales et y distingue 3 sous-groupes ou sous-familles :
 le groupe des genres Luxemburgia, Philacra
 les ochnoidées
 les sauvagésioidées
-La classification phylogénétique APG III (2009)[2] inclut dans cette famille les genres précédemment placés dans les familles Medusagynaceae (Medusagyne) et Quiinaceae (Froesia, Lacunaria, Quiina, Touroulia).
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Medusagynaceae (Medusagyne) et Quiinaceae (Froesia, Lacunaria, Quiina, Touroulia).
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (24 mai 2010)[3] (conforme à APGIII)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (24 mai 2010) (conforme à APGIII)
 Adenarake (es)
 Blastemanthus (es)
 Brackenridgea
@@ -612,7 +630,7 @@
 Touroulia (ancien Quiinaceae)
 Tyleria (es)
 Wallacea
-Selon NCBI  (24 mai 2010)[4] :
+Selon NCBI  (24 mai 2010) :
 Cespedesia
 Diporidium (es)
 Discladium (vi)
@@ -629,7 +647,7 @@
 Quiina (ancien Quiinaceae)
 Sauvagesia
 Touroulia (ancien Quiinaceae)
-Selon DELTA Angio           (24 mai 2010)[5] :
+Selon DELTA Angio           (24 mai 2010) :
 Adenanthe
 Adenarake (es)
 Blastemanthus
@@ -661,7 +679,7 @@
 Testulea
 Tyleria
 Wallacea
-Selon ITIS      (30 juil. 2010)[6] :
+Selon ITIS      (30 juil. 2010) :
 Ochna L.
 Ouratea Aubl.
 Sauvagesia L.</t>
